--- a/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a75_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-4200.1058738280835</v>
+        <v>-1737.643762230364</v>
       </c>
       <c r="C2">
-        <v>9.100874499</v>
+        <v>61.247206884</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4172.7930095692755</v>
+        <v>-1740.0765203442515</v>
       </c>
       <c r="C3">
-        <v>0.362189136</v>
+        <v>85.749586216</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>1302</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>1205</v>
+        <v>7914</v>
       </c>
       <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>8435</v>
+      </c>
+      <c r="I3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-4198.061469013669</v>
+        <v>-1740.3063680166763</v>
       </c>
       <c r="C4">
-        <v>0.307206205</v>
+        <v>77.581465122</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>1302</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>1205</v>
+        <v>7914</v>
       </c>
       <c r="H4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>8435</v>
+      </c>
+      <c r="I4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-4184.880359518008</v>
+        <v>-1735.99549710268</v>
       </c>
       <c r="C5">
-        <v>0.315241572</v>
+        <v>70.742561033</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>1302</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>1205</v>
+        <v>7914</v>
       </c>
       <c r="H5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>8435</v>
+      </c>
+      <c r="I5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-4181.370874039598</v>
+        <v>-1744.8962066542267</v>
       </c>
       <c r="C6">
-        <v>0.293662455</v>
+        <v>85.214037175</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>1302</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>1205</v>
+        <v>10118</v>
       </c>
       <c r="H6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>10845</v>
+      </c>
+      <c r="I6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-4160.305886685349</v>
+        <v>-1725.3743202503663</v>
       </c>
       <c r="C7">
-        <v>0.328551152</v>
+        <v>38.495122583</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>1302</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>1205</v>
+        <v>7914</v>
       </c>
       <c r="H7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>8435</v>
+      </c>
+      <c r="I7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-4191.464355346141</v>
+        <v>-1739.2480133361828</v>
       </c>
       <c r="C8">
-        <v>0.304367918</v>
+        <v>31.565540001</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>1302</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>1205</v>
+        <v>4608</v>
       </c>
       <c r="H8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>4820</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-4152.452588277491</v>
+        <v>-1723.3874466923476</v>
       </c>
       <c r="C9">
-        <v>0.229579538</v>
+        <v>47.425846237</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>1302</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1205</v>
+        <v>4608</v>
       </c>
       <c r="H9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>4820</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-4171.712295451467</v>
+        <v>-1733.6804531564192</v>
       </c>
       <c r="C10">
-        <v>0.286076035</v>
+        <v>94.887442014</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>1302</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>1205</v>
+        <v>6812</v>
       </c>
       <c r="H10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>7230</v>
+      </c>
+      <c r="I10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-4207.280722184274</v>
+        <v>-1746.9903591804796</v>
       </c>
       <c r="C11">
-        <v>0.207897904</v>
+        <v>92.879735269</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>1302</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>1205</v>
+        <v>4608</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>4820</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,111 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.71573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08354918018444825</v>
+      </c>
+      <c r="E2">
+        <v>194.01011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4171.712295451467</v>
+        <v>-1818.5477870979605</v>
       </c>
       <c r="C3">
-        <v>6.54044169894856e-14</v>
+        <v>0.06468512502856552</v>
       </c>
       <c r="D3">
+        <v>0.6484179487819824</v>
+      </c>
+      <c r="E3">
+        <v>8.7912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1759.954952512984</v>
+      </c>
+      <c r="C4">
+        <v>0.08551683908240874</v>
+      </c>
+      <c r="D4">
+        <v>0.6343635164503174</v>
+      </c>
+      <c r="E4">
+        <v>4.78566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1742.0017355094424</v>
+      </c>
+      <c r="C5">
+        <v>0.0011768704969246503</v>
+      </c>
+      <c r="D5">
+        <v>2.999644264133911</v>
+      </c>
+      <c r="E5">
+        <v>3.62974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1734.9517928320242</v>
+      </c>
+      <c r="C6">
+        <v>0.010179745302445782</v>
+      </c>
+      <c r="D6">
+        <v>11.956893422699341</v>
+      </c>
+      <c r="E6">
+        <v>2.81984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1733.8763716574676</v>
+      </c>
+      <c r="C7">
+        <v>0.09783197204433194</v>
+      </c>
+      <c r="D7">
+        <v>54.99647048879822</v>
+      </c>
+      <c r="E7">
+        <v>0.95917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1733.6804531564192</v>
+      </c>
+      <c r="C8">
+        <v>0.022496830709004222</v>
+      </c>
+      <c r="D8">
+        <v>21.438535709879517</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +912,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +946,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>26.94826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05094577033630371</v>
+      </c>
+      <c r="E2">
+        <v>188.63784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4207.280722184274</v>
+        <v>-1774.0645654877208</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09928993732278434</v>
       </c>
       <c r="D3">
+        <v>0.45238495271972656</v>
+      </c>
+      <c r="E3">
+        <v>4.74055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1750.9328659212517</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>6.219106962607422</v>
+      </c>
+      <c r="E4">
+        <v>3.9646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1749.1200124723637</v>
+      </c>
+      <c r="C5">
+        <v>0.002249051180508036</v>
+      </c>
+      <c r="D5">
+        <v>13.955648714638183</v>
+      </c>
+      <c r="E5">
+        <v>3.34771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1746.9903591804796</v>
+      </c>
+      <c r="C6">
+        <v>0.09980694231874149</v>
+      </c>
+      <c r="D6">
+        <v>70.82540791782752</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +1027,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1061,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.24493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0746301732730712</v>
+      </c>
+      <c r="E2">
+        <v>190.71448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4200.1058738280835</v>
+        <v>-1796.8675009094734</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.07825374404798581</v>
       </c>
       <c r="D3">
+        <v>0.40292942217932126</v>
+      </c>
+      <c r="E3">
+        <v>6.6921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1747.174931294489</v>
+      </c>
+      <c r="C4">
+        <v>0.09653187250875908</v>
+      </c>
+      <c r="D4">
+        <v>1.2985744195560303</v>
+      </c>
+      <c r="E4">
+        <v>3.97599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1743.4635770771638</v>
+      </c>
+      <c r="C5">
+        <v>0.05240178619308042</v>
+      </c>
+      <c r="D5">
+        <v>10.265656811508789</v>
+      </c>
+      <c r="E5">
+        <v>3.67268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1737.7228925614208</v>
+      </c>
+      <c r="C6">
+        <v>0.06847231636580146</v>
+      </c>
+      <c r="D6">
+        <v>11.155303602751587</v>
+      </c>
+      <c r="E6">
+        <v>0.72811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1737.643762230364</v>
+      </c>
+      <c r="C7">
+        <v>0.004553886866592973</v>
+      </c>
+      <c r="D7">
+        <v>26.45464364064905</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1159,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1193,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.4327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.09294568530163574</v>
+      </c>
+      <c r="E2">
+        <v>192.02891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4172.7930095692755</v>
+        <v>-1762.4646736808813</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09339374233561368</v>
       </c>
       <c r="D3">
+        <v>0.6666907944770508</v>
+      </c>
+      <c r="E3">
+        <v>4.15032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1752.3995600668616</v>
+      </c>
+      <c r="C4">
+        <v>0.09530715198791347</v>
+      </c>
+      <c r="D4">
+        <v>0.6295678917705079</v>
+      </c>
+      <c r="E4">
+        <v>2.48228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1742.1836124968272</v>
+      </c>
+      <c r="C5">
+        <v>0.007251693410992463</v>
+      </c>
+      <c r="D5">
+        <v>5.835132517345093</v>
+      </c>
+      <c r="E5">
+        <v>3.16919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1740.5810835782124</v>
+      </c>
+      <c r="C6">
+        <v>0.001740543880666116</v>
+      </c>
+      <c r="D6">
+        <v>13.412309446278687</v>
+      </c>
+      <c r="E6">
+        <v>1.29302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1740.2604920598671</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>16.20054746952112</v>
+      </c>
+      <c r="E7">
+        <v>0.48659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1740.1944645876702</v>
+      </c>
+      <c r="C8">
+        <v>0.023066845809204914</v>
+      </c>
+      <c r="D8">
+        <v>25.845081201067995</v>
+      </c>
+      <c r="E8">
+        <v>0.50859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1740.0765203442515</v>
+      </c>
+      <c r="C9">
+        <v>0.04874208648531722</v>
+      </c>
+      <c r="D9">
+        <v>20.916844725631226</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1325,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1359,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.31895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06018824776904297</v>
+      </c>
+      <c r="E2">
+        <v>191.23263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4198.061469013669</v>
+        <v>-1752.1057383270022</v>
       </c>
       <c r="C3">
-        <v>4.332927035423288e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>24.118082830196045</v>
+      </c>
+      <c r="E3">
+        <v>4.42244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1748.638704890977</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>5.102221476633789</v>
+      </c>
+      <c r="E4">
+        <v>3.85634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1745.1864865542475</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>5.882799259148071</v>
+      </c>
+      <c r="E5">
+        <v>2.41113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1743.7277127420787</v>
+      </c>
+      <c r="C6">
+        <v>0.029173175099382387</v>
+      </c>
+      <c r="D6">
+        <v>3.1491751284133302</v>
+      </c>
+      <c r="E6">
+        <v>2.51116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1742.5171063578541</v>
+      </c>
+      <c r="C7">
+        <v>0.05884274876905772</v>
+      </c>
+      <c r="D7">
+        <v>15.507942425125</v>
+      </c>
+      <c r="E7">
+        <v>1.8658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1740.417325625824</v>
+      </c>
+      <c r="C8">
+        <v>0.05418822859491897</v>
+      </c>
+      <c r="D8">
+        <v>16.51092159683313</v>
+      </c>
+      <c r="E8">
+        <v>1.53833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1740.3063680166763</v>
+      </c>
+      <c r="C9">
+        <v>0.08500917602665782</v>
+      </c>
+      <c r="D9">
+        <v>5.356407799326538</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1491,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1525,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.56983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07679003020275879</v>
+      </c>
+      <c r="E2">
+        <v>192.98878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4184.880359518008</v>
+        <v>-1753.0932393754317</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09622222299086</v>
       </c>
       <c r="D3">
+        <v>0.436798591192627</v>
+      </c>
+      <c r="E3">
+        <v>5.19675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1743.9892959046954</v>
+      </c>
+      <c r="C4">
+        <v>0.09874008222717269</v>
+      </c>
+      <c r="D4">
+        <v>0.7295362558156738</v>
+      </c>
+      <c r="E4">
+        <v>2.96156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1742.2269992446334</v>
+      </c>
+      <c r="C5">
+        <v>0.09392009720950664</v>
+      </c>
+      <c r="D5">
+        <v>4.765164532455689</v>
+      </c>
+      <c r="E5">
+        <v>4.01347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1739.684592510675</v>
+      </c>
+      <c r="C6">
+        <v>0.09226194094650787</v>
+      </c>
+      <c r="D6">
+        <v>2.9402310785693357</v>
+      </c>
+      <c r="E6">
+        <v>3.22784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1736.5281280998033</v>
+      </c>
+      <c r="C7">
+        <v>0.007077799420433878</v>
+      </c>
+      <c r="D7">
+        <v>17.446962413992065</v>
+      </c>
+      <c r="E7">
+        <v>1.89511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1736.014738902999</v>
+      </c>
+      <c r="C8">
+        <v>0.09845973685194266</v>
+      </c>
+      <c r="D8">
+        <v>12.02029463505127</v>
+      </c>
+      <c r="E8">
+        <v>0.26177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1735.99549710268</v>
+      </c>
+      <c r="C9">
+        <v>0.004868101728721732</v>
+      </c>
+      <c r="D9">
+        <v>30.095801185256224</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1657,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1691,162 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.77908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.046280553943969724</v>
+      </c>
+      <c r="E2">
+        <v>194.45357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4181.370874039598</v>
+        <v>-1780.3854347276902</v>
       </c>
       <c r="C3">
-        <v>6.525333885732904e-14</v>
+        <v>0.0912147039964464</v>
       </c>
       <c r="D3">
+        <v>0.3925871660075684</v>
+      </c>
+      <c r="E3">
+        <v>5.34018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1757.6760382833227</v>
+      </c>
+      <c r="C4">
+        <v>0.0938809874451542</v>
+      </c>
+      <c r="D4">
+        <v>0.5438851114594727</v>
+      </c>
+      <c r="E4">
+        <v>3.61319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1756.585449509942</v>
+      </c>
+      <c r="C5">
+        <v>0.09391776453982033</v>
+      </c>
+      <c r="D5">
+        <v>0.7218901269798584</v>
+      </c>
+      <c r="E5">
+        <v>3.15846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1751.9833702331816</v>
+      </c>
+      <c r="C6">
+        <v>0.09792353878903995</v>
+      </c>
+      <c r="D6">
+        <v>6.283731178255859</v>
+      </c>
+      <c r="E6">
+        <v>2.53916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1749.4650256097966</v>
+      </c>
+      <c r="C7">
+        <v>0.09398383166486783</v>
+      </c>
+      <c r="D7">
+        <v>3.1797304302880858</v>
+      </c>
+      <c r="E7">
+        <v>2.2704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1748.2254927673225</v>
+      </c>
+      <c r="C8">
+        <v>0.08273290196508448</v>
+      </c>
+      <c r="D8">
+        <v>7.305585884083862</v>
+      </c>
+      <c r="E8">
+        <v>2.10258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1746.1591802131531</v>
+      </c>
+      <c r="C9">
+        <v>0.003987245480855676</v>
+      </c>
+      <c r="D9">
+        <v>11.988185041522339</v>
+      </c>
+      <c r="E9">
+        <v>1.81241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1745.5797993450453</v>
+      </c>
+      <c r="C10">
+        <v>0.006565704795993746</v>
+      </c>
+      <c r="D10">
+        <v>22.1551309976687</v>
+      </c>
+      <c r="E10">
+        <v>1.43803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-1744.8962066542267</v>
+      </c>
+      <c r="C11">
+        <v>0.024395224169802176</v>
+      </c>
+      <c r="D11">
+        <v>28.709796291939575</v>
+      </c>
+      <c r="E11">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1857,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1891,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.35945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05473429485437012</v>
+      </c>
+      <c r="E2">
+        <v>191.51613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4160.305886685349</v>
+        <v>-1799.269084849509</v>
       </c>
       <c r="C3">
-        <v>2.186124594068083e-14</v>
+        <v>0.0991030508517104</v>
       </c>
       <c r="D3">
+        <v>0.49144595264697266</v>
+      </c>
+      <c r="E3">
+        <v>7.79428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1728.9388516718036</v>
+      </c>
+      <c r="C4">
+        <v>1.5460941395752148e-5</v>
+      </c>
+      <c r="D4">
+        <v>2.3352616836430666</v>
+      </c>
+      <c r="E4">
+        <v>2.40533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1728.3091835784626</v>
+      </c>
+      <c r="C5">
+        <v>0.03644807362046884</v>
+      </c>
+      <c r="D5">
+        <v>3.444581906380127</v>
+      </c>
+      <c r="E5">
+        <v>1.93414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1726.5080749174995</v>
+      </c>
+      <c r="C6">
+        <v>0.02561334134372641</v>
+      </c>
+      <c r="D6">
+        <v>11.905631656760375</v>
+      </c>
+      <c r="E6">
+        <v>1.78429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1725.9814344725485</v>
+      </c>
+      <c r="C7">
+        <v>0.05648424913561416</v>
+      </c>
+      <c r="D7">
+        <v>3.047927867942871</v>
+      </c>
+      <c r="E7">
+        <v>1.11367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1725.4551557749119</v>
+      </c>
+      <c r="C8">
+        <v>0.03139525538648596</v>
+      </c>
+      <c r="D8">
+        <v>8.59023058607727</v>
+      </c>
+      <c r="E8">
+        <v>0.61482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1725.3743202503663</v>
+      </c>
+      <c r="C9">
+        <v>0.08339361147601732</v>
+      </c>
+      <c r="D9">
+        <v>6.080518796817749</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +2023,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +2057,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.35565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.049117944051879886</v>
+      </c>
+      <c r="E2">
+        <v>191.48952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4191.464355346141</v>
+        <v>-1750.2932610951693</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>5.498491211669068</v>
+      </c>
+      <c r="E3">
+        <v>4.83737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1739.653636068374</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>10.235762663992187</v>
+      </c>
+      <c r="E4">
+        <v>0.93229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1739.2480403977372</v>
+      </c>
+      <c r="C5">
+        <v>0.04552292171721966</v>
+      </c>
+      <c r="D5">
+        <v>10.488225277803588</v>
+      </c>
+      <c r="E5">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1739.2480133361828</v>
+      </c>
+      <c r="C6">
+        <v>0.054508923354803555</v>
+      </c>
+      <c r="D6">
+        <v>4.013253476806763</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +2138,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +2172,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.84246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07525441623352051</v>
+      </c>
+      <c r="E2">
+        <v>194.89722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4152.452588277491</v>
+        <v>-1735.5307029358314</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>6.317648911824463</v>
+      </c>
+      <c r="E3">
+        <v>4.60112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1726.431065901904</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>5.396553344644653</v>
+      </c>
+      <c r="E4">
+        <v>2.4518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1723.7359735234718</v>
+      </c>
+      <c r="C5">
+        <v>0.0019125806000099964</v>
+      </c>
+      <c r="D5">
+        <v>8.05886769682776</v>
+      </c>
+      <c r="E5">
+        <v>1.11418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1723.3874466923476</v>
+      </c>
+      <c r="C6">
+        <v>0.07692503491486707</v>
+      </c>
+      <c r="D6">
+        <v>26.2576106877594</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
